--- a/results/mp/logistic/corona/confidence/84/topk-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/topk-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="85">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,48 +40,48 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>kill</t>
   </si>
   <si>
-    <t>crisis</t>
+    <t>died</t>
+  </si>
+  <si>
+    <t>crude</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -91,18 +91,30 @@
     <t>stop</t>
   </si>
   <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
     <t>of</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>a</t>
+    <t>and</t>
   </si>
   <si>
     <t>the</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>to</t>
   </si>
   <si>
@@ -112,79 +124,100 @@
     <t>negative</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>happy</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>heroes</t>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>fresh</t>
+    <t>save</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>strong</t>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>please</t>
@@ -193,58 +226,49 @@
     <t>help</t>
   </si>
   <si>
+    <t>gt</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>ready</t>
+    <t>care</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>giving</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>safety</t>
+    <t>helping</t>
   </si>
   <si>
     <t>you</t>
   </si>
   <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>!</t>
+    <t>your</t>
   </si>
   <si>
     <t>for</t>
   </si>
   <si>
-    <t>and</t>
+    <t>?</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
 </sst>
 </file>
@@ -602,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,10 +634,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -671,13 +695,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7894736842105263</v>
+        <v>0.7465753424657534</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>218</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>218</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -689,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -713,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -721,13 +745,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7534246575342466</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C4">
-        <v>220</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>220</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -739,10 +763,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K4">
         <v>0.9152542372881356</v>
@@ -771,13 +795,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6896551724137931</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -789,19 +813,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K5">
-        <v>0.9</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -813,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -821,13 +845,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6176470588235294</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -839,19 +863,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K6">
-        <v>0.8660714285714286</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -863,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -871,13 +895,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5384615384615384</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -892,16 +916,16 @@
         <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K7">
-        <v>0.8611111111111112</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -913,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -921,13 +945,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5263157894736842</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -939,19 +963,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K8">
-        <v>0.8461538461538461</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="M8">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -963,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -971,13 +995,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4864864864864865</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -989,19 +1013,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K9">
-        <v>0.835509138381201</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L9">
-        <v>320</v>
+        <v>30</v>
       </c>
       <c r="M9">
-        <v>320</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1013,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>63</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1021,13 +1045,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4722222222222222</v>
+        <v>0.5</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1039,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K10">
-        <v>0.8103448275862069</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="L10">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="M10">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1063,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1071,13 +1095,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4666666666666667</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1089,19 +1113,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K11">
-        <v>0.8018867924528302</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L11">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="M11">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1113,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1121,13 +1145,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.455026455026455</v>
+        <v>0.4232804232804233</v>
       </c>
       <c r="C12">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D12">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1139,19 +1163,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>0.7948717948717948</v>
+        <v>0.804177545691906</v>
       </c>
       <c r="L12">
-        <v>31</v>
+        <v>308</v>
       </c>
       <c r="M12">
-        <v>31</v>
+        <v>308</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1163,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1171,13 +1195,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3779069767441861</v>
+        <v>0.3468992248062016</v>
       </c>
       <c r="C13">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="D13">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1189,19 +1213,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K13">
-        <v>0.7816901408450704</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="L13">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="M13">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1213,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1221,13 +1245,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3728813559322034</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C14">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1239,19 +1263,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K14">
-        <v>0.7804878048780488</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L14">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M14">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1263,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1271,13 +1295,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3725490196078431</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C15">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1289,19 +1313,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K15">
-        <v>0.7777777777777778</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="L15">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="M15">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1313,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1321,13 +1345,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2666666666666667</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1339,19 +1363,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K16">
-        <v>0.7734375</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L16">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1363,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1371,13 +1395,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2147651006711409</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="C17">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D17">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1389,19 +1413,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K17">
-        <v>0.75625</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L17">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="M17">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1413,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>39</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1421,13 +1445,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.1638888888888889</v>
+        <v>0.1361111111111111</v>
       </c>
       <c r="C18">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D18">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1439,19 +1463,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K18">
-        <v>0.7301587301587301</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L18">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M18">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1463,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1471,13 +1495,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.06349206349206349</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C19">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D19">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1489,19 +1513,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K19">
-        <v>0.7021276595744681</v>
+        <v>0.76875</v>
       </c>
       <c r="L19">
-        <v>33</v>
+        <v>123</v>
       </c>
       <c r="M19">
-        <v>33</v>
+        <v>123</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1513,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1521,37 +1545,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.009263157894736843</v>
+        <v>0.04021447721179625</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D20">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E20">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>2353</v>
+        <v>358</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K20">
-        <v>0.696969696969697</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L20">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M20">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1563,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1571,49 +1595,49 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.007739438890680426</v>
+        <v>0.01096319498825372</v>
       </c>
       <c r="C21">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D21">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>0.46</v>
+      </c>
+      <c r="F21">
+        <v>0.54</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1263</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K21">
+        <v>0.765625</v>
+      </c>
+      <c r="L21">
+        <v>98</v>
+      </c>
+      <c r="M21">
+        <v>98</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>30</v>
-      </c>
-      <c r="E21">
-        <v>0.2</v>
-      </c>
-      <c r="F21">
-        <v>0.8</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>3077</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K21">
-        <v>0.6875</v>
-      </c>
-      <c r="L21">
-        <v>33</v>
-      </c>
-      <c r="M21">
-        <v>33</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1621,49 +1645,49 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.006944444444444444</v>
+        <v>0.01013941698352345</v>
       </c>
       <c r="C22">
+        <v>24</v>
+      </c>
+      <c r="D22">
+        <v>36</v>
+      </c>
+      <c r="E22">
+        <v>0.33</v>
+      </c>
+      <c r="F22">
+        <v>0.6699999999999999</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>2343</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K22">
+        <v>0.746031746031746</v>
+      </c>
+      <c r="L22">
+        <v>47</v>
+      </c>
+      <c r="M22">
+        <v>47</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>16</v>
-      </c>
-      <c r="D22">
-        <v>21</v>
-      </c>
-      <c r="E22">
-        <v>0.24</v>
-      </c>
-      <c r="F22">
-        <v>0.76</v>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>2288</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K22">
-        <v>0.6744186046511628</v>
-      </c>
-      <c r="L22">
-        <v>29</v>
-      </c>
-      <c r="M22">
-        <v>29</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1671,37 +1695,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.004084014002333722</v>
+        <v>0.006551240056153486</v>
       </c>
       <c r="C23">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="E23">
-        <v>0.52</v>
+        <v>0.3</v>
       </c>
       <c r="F23">
-        <v>0.48</v>
+        <v>0.7</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>5121</v>
+        <v>2123</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K23">
-        <v>0.66</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L23">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="M23">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1713,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1721,37 +1745,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.003255056963496861</v>
+        <v>0.006457862447529867</v>
       </c>
       <c r="C24">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D24">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E24">
-        <v>0.66</v>
+        <v>0.33</v>
       </c>
       <c r="F24">
-        <v>0.34</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>4287</v>
+        <v>3077</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K24">
-        <v>0.6441176470588236</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L24">
-        <v>219</v>
+        <v>17</v>
       </c>
       <c r="M24">
-        <v>219</v>
+        <v>17</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1763,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>121</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1771,37 +1795,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.003229061553985873</v>
+        <v>0.004914933837429111</v>
       </c>
       <c r="C25">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D25">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E25">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="F25">
-        <v>0.28</v>
+        <v>0.32</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>4939</v>
+        <v>2632</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K25">
-        <v>0.6285714285714286</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L25">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M25">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1813,21 +1837,45 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:17">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>0.004863813229571985</v>
+      </c>
+      <c r="C26">
+        <v>25</v>
+      </c>
+      <c r="D26">
+        <v>50</v>
+      </c>
+      <c r="E26">
+        <v>0.5</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>5115</v>
+      </c>
       <c r="J26" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K26">
-        <v>0.6071428571428571</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L26">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M26">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1839,21 +1887,45 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:17">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>0.004706620646375902</v>
+      </c>
+      <c r="C27">
+        <v>15</v>
+      </c>
+      <c r="D27">
+        <v>29</v>
+      </c>
+      <c r="E27">
+        <v>0.48</v>
+      </c>
+      <c r="F27">
+        <v>0.52</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>3172</v>
+      </c>
       <c r="J27" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K27">
-        <v>0.5909090909090909</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L27">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M27">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1869,17 +1941,41 @@
       </c>
     </row>
     <row r="28" spans="1:17">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>0.004415524052986289</v>
+      </c>
+      <c r="C28">
+        <v>19</v>
+      </c>
+      <c r="D28">
+        <v>44</v>
+      </c>
+      <c r="E28">
+        <v>0.57</v>
+      </c>
+      <c r="F28">
+        <v>0.43</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>4284</v>
+      </c>
       <c r="J28" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K28">
-        <v>0.5857740585774058</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L28">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="M28">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1891,47 +1987,71 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>99</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:17">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>0.004029820672980053</v>
+      </c>
+      <c r="C29">
+        <v>20</v>
+      </c>
+      <c r="D29">
+        <v>53</v>
+      </c>
+      <c r="E29">
+        <v>0.62</v>
+      </c>
+      <c r="F29">
+        <v>0.38</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>4943</v>
+      </c>
       <c r="J29" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K29">
-        <v>0.5782312925170068</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L29">
-        <v>170</v>
+        <v>23</v>
       </c>
       <c r="M29">
-        <v>171</v>
+        <v>23</v>
       </c>
       <c r="N29">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>124</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K30">
-        <v>0.5638297872340425</v>
+        <v>0.62</v>
       </c>
       <c r="L30">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="M30">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1943,21 +2063,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K31">
-        <v>0.5384615384615384</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L31">
-        <v>35</v>
+        <v>210</v>
       </c>
       <c r="M31">
-        <v>35</v>
+        <v>210</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1969,21 +2089,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>30</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K32">
-        <v>0.5</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="L32">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M32">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1995,21 +2115,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K33">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="L33">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M33">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2021,15 +2141,15 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K34">
-        <v>0.4814814814814815</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="L34">
         <v>13</v>
@@ -2047,21 +2167,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K35">
-        <v>0.475</v>
+        <v>0.5774058577405857</v>
       </c>
       <c r="L35">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="M35">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2073,21 +2193,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>21</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K36">
-        <v>0.4719101123595505</v>
+        <v>0.5559322033898305</v>
       </c>
       <c r="L36">
-        <v>42</v>
+        <v>164</v>
       </c>
       <c r="M36">
-        <v>42</v>
+        <v>164</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2099,21 +2219,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>47</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K37">
-        <v>0.4242424242424243</v>
+        <v>0.55</v>
       </c>
       <c r="L37">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M37">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2125,21 +2245,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K38">
-        <v>0.3846153846153846</v>
+        <v>0.5212765957446809</v>
       </c>
       <c r="L38">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="M38">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2151,21 +2271,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K39">
-        <v>0.3095238095238095</v>
+        <v>0.5056179775280899</v>
       </c>
       <c r="L39">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M39">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2177,21 +2297,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K40">
-        <v>0.2888888888888889</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="L40">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M40">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2203,21 +2323,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K41">
-        <v>0.2602739726027397</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L41">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M41">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2229,21 +2349,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>54</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K42">
-        <v>0.2549019607843137</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="L42">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M42">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2255,47 +2375,47 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K43">
-        <v>0.01836393989983305</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="L43">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M43">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N43">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>1176</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K44">
-        <v>0.01538461538461539</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L44">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M44">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2307,163 +2427,319 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>1024</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K45">
-        <v>0.01519756838905775</v>
+        <v>0.273972602739726</v>
       </c>
       <c r="L45">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M45">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N45">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>972</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K46">
-        <v>0.01257861635220126</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="L46">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M46">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N46">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>1570</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K47">
-        <v>0.00823293172690763</v>
+        <v>0.02754590984974958</v>
       </c>
       <c r="L47">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="M47">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="N47">
-        <v>0.72</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O47">
-        <v>0.28</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>4939</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K48">
-        <v>0.006378986866791745</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="L48">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M48">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N48">
-        <v>0.68</v>
+        <v>0.93</v>
       </c>
       <c r="O48">
-        <v>0.32</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>2648</v>
+        <v>533</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="K49">
-        <v>0.006258692628650904</v>
+        <v>0.01257861635220126</v>
       </c>
       <c r="L49">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="M49">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N49">
-        <v>0.66</v>
+        <v>0.83</v>
       </c>
       <c r="O49">
-        <v>0.34</v>
+        <v>0.17</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>4287</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K50">
+        <v>0.01052631578947368</v>
+      </c>
+      <c r="L50">
         <v>28</v>
       </c>
-      <c r="K50">
-        <v>0.004471228615863142</v>
-      </c>
-      <c r="L50">
-        <v>23</v>
-      </c>
       <c r="M50">
+        <v>41</v>
+      </c>
+      <c r="N50">
+        <v>0.68</v>
+      </c>
+      <c r="O50">
+        <v>0.32</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K51">
+        <v>0.007521938988717091</v>
+      </c>
+      <c r="L51">
+        <v>18</v>
+      </c>
+      <c r="M51">
+        <v>19</v>
+      </c>
+      <c r="N51">
+        <v>0.95</v>
+      </c>
+      <c r="O51">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K52">
+        <v>0.006984387838948234</v>
+      </c>
+      <c r="L52">
+        <v>17</v>
+      </c>
+      <c r="M52">
+        <v>28</v>
+      </c>
+      <c r="N52">
+        <v>0.61</v>
+      </c>
+      <c r="O52">
+        <v>0.39</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K53">
+        <v>0.006631832797427652</v>
+      </c>
+      <c r="L53">
+        <v>33</v>
+      </c>
+      <c r="M53">
+        <v>53</v>
+      </c>
+      <c r="N53">
+        <v>0.62</v>
+      </c>
+      <c r="O53">
+        <v>0.38</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>4943</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K54">
+        <v>0.005801810164771408</v>
+      </c>
+      <c r="L54">
+        <v>25</v>
+      </c>
+      <c r="M54">
         <v>44</v>
       </c>
-      <c r="N50">
+      <c r="N54">
+        <v>0.57</v>
+      </c>
+      <c r="O54">
+        <v>0.43</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>4284</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K55">
+        <v>0.004863813229571985</v>
+      </c>
+      <c r="L55">
+        <v>25</v>
+      </c>
+      <c r="M55">
+        <v>50</v>
+      </c>
+      <c r="N55">
+        <v>0.5</v>
+      </c>
+      <c r="O55">
+        <v>0.5</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>5115</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K56">
+        <v>0.004394224733207784</v>
+      </c>
+      <c r="L56">
+        <v>14</v>
+      </c>
+      <c r="M56">
+        <v>29</v>
+      </c>
+      <c r="N56">
+        <v>0.48</v>
+      </c>
+      <c r="O56">
         <v>0.52</v>
       </c>
-      <c r="O50">
-        <v>0.48</v>
-      </c>
-      <c r="P50" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q50">
-        <v>5121</v>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>3172</v>
       </c>
     </row>
   </sheetData>
